--- a/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3.xlsx
+++ b/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3.xlsx
@@ -1385,19 +1385,19 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>,(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>,(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
   </si>
   <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
@@ -1406,7 +1406,7 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),</t>
   </si>
   <si>
-    <t>(Citation: MDudek-ICS),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
     <t>(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1418,67 +1418,67 @@
     <t>(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Eduard Kovacs May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Symantec Security Response July 2014),(Citation: Chris Bing May 2018),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov),(Citation: Jos Wetzels January 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Davey Winder June 2020),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kelly Jackson Higgins),(Citation: Kevin Beaumont),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Kelly Jackson Higgins),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kevin Beaumont),(Citation: Davey Winder June 2020),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Dragos October 2018),</t>
@@ -1487,10 +1487,10 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
   </si>
   <si>
     <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
@@ -1502,13 +1502,13 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Ralph Langner November 2013),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Threat Intelligence February 2020),(Citation: Tom Fakterman August 2019),(Citation: Dragos October 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: IEC February 2019)</t>
+    <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Tom Fakterman August 2019),(Citation: Dragos October 2018),(Citation: DHS CISA February 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
@@ -1517,37 +1517,37 @@
     <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
   </si>
   <si>
     <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Dragos December 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Max Heinemeyer February 2020),(Citation: Dragos October 2018),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: DHS CISA February 2019),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: Colin Gray)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos December 2017),(Citation: Dragos October 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015),(Citation: Ralph Langner November 2013),</t>
@@ -1556,46 +1556,46 @@
     <t>(Citation: Ralph Langner November 2013),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Tom Fakterman August 2019),(Citation: Ionut Arghire August 2019),(Citation: Jeffery Burt August 2019),(Citation: Symantec March 2019),(Citation: Dragos October 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Labs October 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Novetta Threat Research Group February 2016),(Citation: Dragos),(Citation: Andy Greenburg June 2019),(Citation: Jeff Jones May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Jos Wetzels January 2018),(Citation: Dragos),(Citation: Tom Fakterman August 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: SecureWorks September 2019),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Labs October 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: SecureWorks September 2019),(Citation: ESET),(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>,(Citation: National Institute of Standards and Technology April 2013),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019),(Citation: National Security Agency February 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Kyle Wilhoit),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Tom Fakterman August 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Dragos December 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos),(Citation: SecureWorks August 2019),(Citation: Dragos October 2018),(Citation: Microsoft May 2017),(Citation: Microsoft August 2018),(Citation: CISA June 2013),(Citation: Microsoft February 2019),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),(Citation: Jeffery Burt August 2019),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos October 2018),(Citation: DHS CISA February 2019),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Jeff Jones May 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Novetta Threat Research Group February 2016),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Booz Allen Hamilton),(Citation: Andy Greenburg June 2019),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Jos Wetzels January 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>,(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos December 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos October 2018),(Citation: SecureWorks August 2019),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Microsoft February 2019),(Citation: CISA June 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft May 2017)</t>
   </si>
   <si>
     <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: Bastille April 2017)</t>
   </si>
   <si>
     <t>TA0100</t>
@@ -2111,13 +2111,13 @@
     <t>,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Marc-Etienne M.Lveill October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),(Citation: Kyle Wilhoit),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
@@ -2126,13 +2126,13 @@
     <t>,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Dragos Threat Intelligence February 2020)</t>
+    <t>,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING ),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dragos Inc. June 2017),(Citation: Dragos October 2018),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING ),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Dragos October 2018)</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
@@ -2141,28 +2141,28 @@
     <t>(Citation: FireEye FIN6 Apr 2019),(Citation: Kevin Beaumont),(Citation: Hydro)</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: McAfee Labs October 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019),(Citation: SecureWorks September 2019),(Citation: Max Heinemeyer February 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye FIN6 Apr 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018),(Citation: Schneider Electric January 2018),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk's Return October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Ralph Langner November 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos),(Citation: Schneider Electric January 2018),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017)</t>
+  </si>
+  <si>
+    <t>,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2447,43 +2447,43 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Eduard Kovacs May 2018),(Citation: Jeff Jones May 2018)</t>
-  </si>
-  <si>
-    <t>,(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019)</t>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Jeff Jones May 2018),(Citation: ICS-CERT October 2017)</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec March 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Andy Greenburg June 2019)</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Security Response July 2014)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),(Citation: Symantec Security Response July 2014)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: SecureWorks August 2019),(Citation: Dragos),(Citation: Ionut Arghire August 2019),(Citation: Jeffery Burt August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016)</t>
-  </si>
-  <si>
-    <t>,(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Eduard Kovacs May 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: iSIGHT Sandworm 2014),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: ESET Industroyer),(Citation: NCSC Sandworm Feb 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: ICS CERT September 2018),(Citation: Zetter, Kim March 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: ICS-CERT December 2014),(Citation: Dragos Inc. June 2017),(Citation: ICS-CERT February 2016),(Citation: John Hultquist January 2016),(Citation: Dragos),(Citation: Dragos October 2018)</t>
+    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: Ionut Arghire August 2019),(Citation: Dragos),(Citation: Jeffery Burt August 2019),(Citation: SecureWorks August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018)</t>
+  </si>
+  <si>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING ),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: John Hultquist January 2016),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos October 2018),(Citation: ICS-CERT February 2016),(Citation: ICS-CERT December 2014),(Citation: Dragos),(Citation: Zetter, Kim March 2016)</t>
   </si>
   <si>
     <t>(Citation: Dragos),(Citation: Dragos December 2017),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018)</t>
   </si>
   <si>
-    <t>(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk's Return October 2020),</t>
+    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk's Return October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),</t>
   </si>
   <si>
     <t>M0801</t>
@@ -3122,7 +3122,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -3131,19 +3131,19 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: Emerson Exchange),(Citation: IEC February 2019),(Citation: National Security Agency February 2016)</t>
+    <t>(Citation: National Security Agency February 2016),(Citation: IEC February 2019),(Citation: Emerson Exchange)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
+    <t>(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Department of Homeland Security September 2016)</t>
@@ -3152,10 +3152,10 @@
     <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Microsoft Security Response Center August 2017)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -3167,19 +3167,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019),(Citation: N/A),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft May 2017),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: Colin Gray)</t>
+    <t>(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3.xlsx
+++ b/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3.xlsx
@@ -1385,25 +1385,25 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>,(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
+    <t>,(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1412,10 +1412,10 @@
     <t>(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>,(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov),(Citation: Dragos Inc. June 2017),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
@@ -1424,37 +1424,37 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Eduard Kovacs May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Symantec Security Response July 2014),(Citation: Chris Bing May 2018),</t>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
   </si>
   <si>
     <t>(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
@@ -1469,16 +1469,16 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Kelly Jackson Higgins),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kevin Beaumont),(Citation: Davey Winder June 2020),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Catalin Cimpanu April 2016),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kelly Jackson Higgins),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Davey Winder June 2020),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Dragos October 2018),</t>
@@ -1487,115 +1487,115 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Ralph Langner November 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Tom Fakterman August 2019),(Citation: Dragos October 2018),(Citation: DHS CISA February 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos October 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),</t>
   </si>
   <si>
     <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
   </si>
   <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
+    <t>(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: William Largent June 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos December 2017),(Citation: Dragos October 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015),(Citation: Ralph Langner November 2013),</t>
+    <t>(Citation: Dragos December 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Ralph Langner November 2013),(Citation: Catalin Cimpanu April 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),</t>
   </si>
   <si>
     <t>(Citation: Ralph Langner November 2013),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),(Citation: Jeffery Burt August 2019),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos October 2018),(Citation: DHS CISA February 2019),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Jeff Jones May 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Novetta Threat Research Group February 2016),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Booz Allen Hamilton),(Citation: Andy Greenburg June 2019),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Jos Wetzels January 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>,(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos December 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos October 2018),(Citation: SecureWorks August 2019),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Microsoft February 2019),(Citation: CISA June 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft May 2017)</t>
-  </si>
-  <si>
-    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
-  </si>
-  <si>
-    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: Bastille April 2017)</t>
+    <t>(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),(Citation: ICS-CERT October 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),(Citation: Dragos October 2018),(Citation: Jeffery Burt August 2019),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: Anton Cherepanov, ESET June 2017),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Tom Fakterman August 2019),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: SecureWorks September 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Symantec Security Response July 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>,(Citation: North America Transmission Forum December 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Tom Fakterman August 2019),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos October 2018),(Citation: SecureWorks August 2019),(Citation: Dragos December 2017),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
   </si>
   <si>
     <t>TA0100</t>
@@ -2111,13 +2111,13 @@
     <t>,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),(Citation: Kyle Wilhoit),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019),(Citation: Marc-Etienne M.Lveill October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
@@ -2126,43 +2126,43 @@
     <t>,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020)</t>
   </si>
   <si>
     <t>,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING ),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Dragos October 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: Kevin Beaumont),(Citation: Hydro)</t>
-  </si>
-  <si>
-    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: Dragos October 2018),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: Hydro),(Citation: Kevin Beaumont)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk's Return October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Ralph Langner November 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos),(Citation: Schneider Electric January 2018),(Citation: MDudek-ICS),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017)</t>
-  </si>
-  <si>
-    <t>,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018)</t>
+  </si>
+  <si>
+    <t>,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2447,43 +2447,43 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Jeff Jones May 2018),(Citation: ICS-CERT October 2017)</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec March 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Andy Greenburg June 2019)</t>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Jeff Jones May 2018),(Citation: Dragos),(Citation: ICS-CERT October 2017)</t>
+  </si>
+  <si>
+    <t>,(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Symantec March 2019),(Citation: Andy Greenburg June 2019),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017)</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),(Citation: Symantec Security Response July 2014)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Security Response July 2014)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: Ionut Arghire August 2019),(Citation: Dragos),(Citation: Jeffery Burt August 2019),(Citation: SecureWorks August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: FireEye APT38 Oct 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018)</t>
+    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: Ionut Arghire August 2019),(Citation: Dragos),(Citation: SecureWorks August 2019),(Citation: Jeffery Burt August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016)</t>
   </si>
   <si>
     <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016)</t>
   </si>
   <si>
-    <t>(Citation: iSIGHT Sandworm 2014),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING ),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: John Hultquist January 2016),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos October 2018),(Citation: ICS-CERT February 2016),(Citation: ICS-CERT December 2014),(Citation: Dragos),(Citation: Zetter, Kim March 2016)</t>
+    <t>(Citation: Dragos Crashoverride 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Dragos Crashoverride 2018),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: ESET Industroyer),(Citation: NCSC Sandworm Feb 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: Dragos October 2018),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: Dragos),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: ICS-CERT February 2016),(Citation: ICS-CERT December 2014),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016)</t>
   </si>
   <si>
     <t>(Citation: Dragos),(Citation: Dragos December 2017),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018)</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk's Return October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),</t>
+    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),</t>
   </si>
   <si>
     <t>M0801</t>
@@ -3131,7 +3131,7 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: National Security Agency February 2016),(Citation: IEC February 2019),(Citation: Emerson Exchange)</t>
+    <t>(Citation: IEC February 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
@@ -3149,13 +3149,13 @@
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
   </si>
   <si>
     <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Microsoft Security Response Center August 2017)</t>
+    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -3167,19 +3167,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019)</t>
+    <t>(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017)</t>
+    <t>(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
+    <t>(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3.xlsx
+++ b/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3.xlsx
@@ -1385,7 +1385,7 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>,(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Anton Cherepanov, ESET June 2017),</t>
@@ -1397,16 +1397,16 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
     <t>(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1415,19 +1415,19 @@
     <t>,(Citation: Department of Homeland Security September 2016),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Dragos Inc. June 2017),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
@@ -1436,25 +1436,25 @@
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),</t>
+    <t>(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Eduard Kovacs May 2018),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
@@ -1463,22 +1463,22 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Jos Wetzels January 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Catalin Cimpanu April 2016),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kelly Jackson Higgins),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Davey Winder June 2020),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Davey Winder June 2020),(Citation: Hydro),(Citation: Kelly Jackson Higgins),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Catalin Cimpanu April 2016),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Kevin Beaumont),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Dragos October 2018),</t>
@@ -1487,28 +1487,28 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos October 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Tom Fakterman August 2019),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Dragos October 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),</t>
   </si>
   <si>
     <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
   </si>
   <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
@@ -1517,82 +1517,82 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: William Largent June 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+    <t>,(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Dragos December 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Ralph Langner November 2013),(Citation: Catalin Cimpanu April 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),</t>
+    <t>(Citation: Max Heinemeyer February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Dragos December 2017),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: DHS CISA February 2019),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: ICS-CERT August 2018),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Ralph Langner November 2013),</t>
   </si>
   <si>
     <t>(Citation: Ralph Langner November 2013),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),(Citation: ICS-CERT October 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),(Citation: Dragos October 2018),(Citation: Jeffery Burt August 2019),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: Anton Cherepanov, ESET June 2017),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Tom Fakterman August 2019),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: SecureWorks September 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Symantec Security Response July 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>,(Citation: North America Transmission Forum December 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Tom Fakterman August 2019),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos October 2018),(Citation: SecureWorks August 2019),(Citation: Dragos December 2017),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Junnosuke Yagi March 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Jeffery Burt August 2019),(Citation: Dragos),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos October 2018),(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: McAfee Labs October 2019),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Novetta Threat Research Group February 2016),(Citation: Dragos),(Citation: Jeff Jones May 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Andy Greenburg June 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Eduard Kovacs March 2018),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: SecureWorks September 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: McAfee Labs October 2019),(Citation: Symantec),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>,(Citation: North America Transmission Forum December 2019),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013),(Citation: National Security Agency February 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Tom Fakterman August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos),(Citation: Dragos December 2017),(Citation: SecureWorks August 2019),(Citation: Dragos October 2018),(Citation: Booz Allen Hamilton),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
   </si>
   <si>
     <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
@@ -2111,58 +2111,58 @@
     <t>,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Joe Slowik April 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
+    <t>(Citation: Symantec Dragonfly),(Citation: Gigamon Berserk Bear October 2021),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: ICS-CERT August 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
   </si>
   <si>
     <t>,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020)</t>
+    <t>,(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Dragos Threat Intelligence February 2020)</t>
   </si>
   <si>
     <t>,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: Dragos October 2018),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING ),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019),(Citation: Dragos October 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
   </si>
   <si>
     <t>(Citation: FireEye FIN6 Apr 2019),(Citation: Hydro),(Citation: Kevin Beaumont)</t>
   </si>
   <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks GandCrab and REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks REvil September 2019),(Citation: Max Heinemeyer February 2020),(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: Jos Wetzels January 2018)</t>
-  </si>
-  <si>
-    <t>,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Secureworks REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: McAfee Labs October 2019),(Citation: Tom Fakterman August 2019),(Citation: Max Heinemeyer February 2020),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: SecureWorks September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Ralph Langner November 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos),(Citation: MDudek-ICS),(Citation: DHS CISA February 2019),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Schneider Electric January 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Jos Wetzels January 2018),(Citation: ICS-CERT December 2018)</t>
+  </si>
+  <si>
+    <t>,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>associated groups</t>
@@ -2447,10 +2447,10 @@
     <t>(Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Jeff Jones May 2018),(Citation: Dragos),(Citation: ICS-CERT October 2017)</t>
-  </si>
-  <si>
-    <t>,(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Symantec March 2019),(Citation: Andy Greenburg June 2019),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017)</t>
+    <t>,(Citation: Jeff Jones May 2018),(Citation: Dragos),(Citation: Eduard Kovacs May 2018),(Citation: ICS-CERT October 2017)</t>
+  </si>
+  <si>
+    <t>,(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Andy Greenburg June 2019),(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019)</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),</t>
@@ -2462,28 +2462,28 @@
     <t>(Citation: FireEye FIN6 Apr 2019),</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),</t>
+    <t>(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),</t>
   </si>
   <si>
     <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),</t>
   </si>
   <si>
-    <t>,(Citation: Ionut Arghire August 2019),(Citation: Dragos),(Citation: SecureWorks August 2019),(Citation: Jeffery Burt August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016)</t>
-  </si>
-  <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Dragos Crashoverride 2018),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: ESET Industroyer),(Citation: NCSC Sandworm Feb 2020),(Citation: F-Secure BlackEnergy 2014),(Citation: iSIGHT Sandworm 2014),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: Dragos October 2018),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: Dragos),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: ICS-CERT February 2016),(Citation: ICS-CERT December 2014),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos),(Citation: Dragos December 2017),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),</t>
+    <t>,(Citation: Ionut Arghire August 2019),(Citation: SecureWorks August 2019),(Citation: Jeffery Burt August 2019),(Citation: Dragos)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016)</t>
+  </si>
+  <si>
+    <t>,(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Eduard Kovacs May 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Secureworks IRON VIKING ),(Citation: Dragos Crashoverride 2017),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: John Hultquist January 2016),(Citation: Dragos),(Citation: Dragos October 2018),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: Zetter, Kim March 2016),(Citation: ICS-CERT February 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: ICS-CERT December 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos),(Citation: Chris Bing May 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Dragos December 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),</t>
   </si>
   <si>
     <t>M0801</t>
@@ -3131,13 +3131,13 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: IEC February 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
+    <t>(Citation: IEC February 2019),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+    <t>(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: N/A)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
@@ -3149,13 +3149,13 @@
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -3167,19 +3167,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014)</t>
+    <t>(Citation: North America Transmission Forum December 2019),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019)</t>
+    <t>(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+    <t>(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>
